--- a/개인검색.xlsx
+++ b/개인검색.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="학생정보" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>김코딩</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>미국 캘리포니아 실리콘밸리</t>
+  </si>
+  <si>
+    <t>나천재</t>
+  </si>
+  <si>
+    <t>창의인재개발학과</t>
+  </si>
+  <si>
+    <t>화성 올림포스화산 중턱</t>
+  </si>
+  <si>
+    <t>이호영</t>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 인천대학교 제 2기숙사</t>
+  </si>
+  <si>
+    <t>공돌이</t>
+  </si>
+  <si>
+    <t>기계공학과</t>
+  </si>
+  <si>
+    <t>서울특별시 강남구 삼성동</t>
+  </si>
+  <si>
+    <t>나한국</t>
+  </si>
+  <si>
+    <t>정치외교학과</t>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 여의도</t>
+  </si>
+  <si>
+    <t>황회장</t>
+  </si>
+  <si>
+    <t>경영학과</t>
+  </si>
+  <si>
+    <t>나노벨</t>
+  </si>
+  <si>
+    <t>일어일문학과</t>
+  </si>
+  <si>
+    <t>일본 아키하바라</t>
+  </si>
+  <si>
+    <t>왕해적</t>
+  </si>
+  <si>
+    <t>해양학과</t>
+  </si>
+  <si>
+    <t>마다가스카르 안타나나리보</t>
+  </si>
+  <si>
+    <t>박도둑</t>
+  </si>
+  <si>
+    <t>세무회계학과</t>
+  </si>
+  <si>
+    <t>아일랜드 더블린</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,14 +428,141 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="n">
+        <v>20160001</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
+        <v>20160002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="n">
+        <v>20160003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="n">
+        <v>20160004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="n">
+        <v>20160005</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="n">
+        <v>20160006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="n">
+        <v>20160007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="n">
+        <v>20160008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/개인검색.xlsx
+++ b/개인검색.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="학생정보" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,86 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
-  <si>
-    <t>김코딩</t>
-  </si>
-  <si>
-    <t>컴퓨터공학과</t>
-  </si>
-  <si>
-    <t>미국 캘리포니아 실리콘밸리</t>
-  </si>
-  <si>
-    <t>나천재</t>
-  </si>
-  <si>
-    <t>창의인재개발학과</t>
-  </si>
-  <si>
-    <t>화성 올림포스화산 중턱</t>
-  </si>
-  <si>
-    <t>이호영</t>
-  </si>
-  <si>
-    <t>전자공학과</t>
-  </si>
-  <si>
-    <t>인천광역시 연수구 송도동 인천대학교 제 2기숙사</t>
-  </si>
-  <si>
-    <t>공돌이</t>
-  </si>
-  <si>
-    <t>기계공학과</t>
-  </si>
-  <si>
-    <t>서울특별시 강남구 삼성동</t>
-  </si>
-  <si>
-    <t>나한국</t>
-  </si>
-  <si>
-    <t>정치외교학과</t>
-  </si>
-  <si>
-    <t>서울특별시 영등포구 여의도</t>
-  </si>
-  <si>
-    <t>황회장</t>
-  </si>
-  <si>
-    <t>경영학과</t>
-  </si>
-  <si>
-    <t>나노벨</t>
-  </si>
-  <si>
-    <t>일어일문학과</t>
-  </si>
-  <si>
-    <t>일본 아키하바라</t>
-  </si>
-  <si>
-    <t>왕해적</t>
-  </si>
-  <si>
-    <t>해양학과</t>
-  </si>
-  <si>
-    <t>마다가스카르 안타나나리보</t>
-  </si>
-  <si>
-    <t>박도둑</t>
-  </si>
-  <si>
-    <t>세무회계학과</t>
-  </si>
-  <si>
-    <t>아일랜드 더블린</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,141 +349,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="n">
-        <v>20160001</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="n">
-        <v>20160002</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="n">
-        <v>20160003</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="n">
-        <v>20160004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="n">
-        <v>20160005</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="n">
-        <v>20160006</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="n">
-        <v>20160007</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="n">
-        <v>20160008</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="n">
-        <v>20160009</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>